--- a/tradept/Excel/Localization/english/C成就表_Achievements_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/C成就表_Achievements_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794EDCC5-0E6C-42EA-8058-D6130D91B521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5D1657-A0D1-49D5-AB7C-448AD38347F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -48,168 +48,84 @@
     <t>进入沙盒世界即解锁成就</t>
   </si>
   <si>
-    <t>Bienvenido al Desierto</t>
-  </si>
-  <si>
-    <t>Pase el pie sobre las arenas de Salzaar por primera vez.</t>
-  </si>
-  <si>
     <t>经商之路</t>
   </si>
   <si>
     <t>首次卖出货物</t>
   </si>
   <si>
-    <t>Comerciante Desértico</t>
-  </si>
-  <si>
-    <t>Vende tu primer artículo.</t>
-  </si>
-  <si>
     <t>值得信赖</t>
   </si>
   <si>
     <t>首次完成随机任务</t>
   </si>
   <si>
-    <t>Confiable</t>
-  </si>
-  <si>
-    <t>Completa tu primera búsqueda aleatoria.</t>
-  </si>
-  <si>
     <t>一周目</t>
   </si>
   <si>
     <t>主线剧情通关，击败最终BOSS</t>
   </si>
   <si>
-    <t>Primera vez para todo</t>
-  </si>
-  <si>
-    <t>Termina la historia principal y vence al jefe final.</t>
-  </si>
-  <si>
     <t>二周目</t>
   </si>
   <si>
     <t>以一级或一级以上难度开局，通关主线剧情</t>
   </si>
   <si>
-    <t>Por Segunda Vez</t>
-  </si>
-  <si>
-    <t>Termine la historia principal en un nivel de dificultad de +1 o más.</t>
-  </si>
-  <si>
     <t>更高难度</t>
   </si>
   <si>
     <t>以二级或二级以上难度开局</t>
   </si>
   <si>
-    <t>Mayor Sesafío</t>
-  </si>
-  <si>
-    <t>Comience un juego en un nivel de dificultad de +2 o más.</t>
-  </si>
-  <si>
     <t>五级难度</t>
   </si>
   <si>
     <t>以五级或五级以上难度开局</t>
   </si>
   <si>
-    <t>Bastante Comprometido</t>
-  </si>
-  <si>
-    <t>Comience un juego en un nivel de dificultad de +5 o más.</t>
-  </si>
-  <si>
     <t>自建势力</t>
   </si>
   <si>
     <t>创建了一个自建势力</t>
   </si>
   <si>
-    <t>De cosecha Propia</t>
-  </si>
-  <si>
-    <t>Crea tu propia facción.</t>
-  </si>
-  <si>
     <t>加入势力</t>
   </si>
   <si>
     <t>加入了某个势力</t>
   </si>
   <si>
-    <t>Mejor Juntos</t>
-  </si>
-  <si>
-    <t>Únete a una facción.</t>
-  </si>
-  <si>
     <t>恋人</t>
   </si>
   <si>
     <t>与某人成为恋人</t>
   </si>
   <si>
-    <t>Romance Verdadero</t>
-  </si>
-  <si>
-    <t>Conviértete en el amante de alguien.</t>
-  </si>
-  <si>
     <t>太阳战士</t>
   </si>
   <si>
     <t>击败太阳战士</t>
   </si>
   <si>
-    <t>Guerrero del Sol</t>
-  </si>
-  <si>
-    <t>Derrota al guerrero sol.</t>
-  </si>
-  <si>
     <t>蜥蜴女士</t>
   </si>
   <si>
     <t>击败蜥蜴女士</t>
   </si>
   <si>
-    <t>Doncella Lagarto</t>
-  </si>
-  <si>
-    <t>Derrota a la doncella lagarto.</t>
-  </si>
-  <si>
     <t>冰公主</t>
   </si>
   <si>
     <t>击败冰公主</t>
   </si>
   <si>
-    <t>Princesa de Hielo</t>
-  </si>
-  <si>
-    <t>Derrota a la princesa de hielo.</t>
-  </si>
-  <si>
     <t>黑暗大法师</t>
   </si>
   <si>
     <t>击败黑暗大法师</t>
   </si>
   <si>
-    <t>Gran Mago de Sombras</t>
-  </si>
-  <si>
-    <t>Derrota al Grand Shade Mage.</t>
-  </si>
-  <si>
     <t>炼金毒士</t>
   </si>
   <si>
@@ -219,45 +135,24 @@
     <t>Alquimista Dakn</t>
   </si>
   <si>
-    <t>Derrota al alquimista Dakn.</t>
-  </si>
-  <si>
     <t>堕落者</t>
   </si>
   <si>
     <t>击败堕落者</t>
   </si>
   <si>
-    <t>El Caído</t>
-  </si>
-  <si>
-    <t>Derrota al caído.</t>
-  </si>
-  <si>
     <t>枪骑士</t>
   </si>
   <si>
     <t>击败枪骑士</t>
   </si>
   <si>
-    <t>Caballero de la Lanza</t>
-  </si>
-  <si>
-    <t>Derrota al Caballero Lance.</t>
-  </si>
-  <si>
     <t>追风</t>
   </si>
   <si>
     <t>击败追风</t>
   </si>
   <si>
-    <t>Cazador del Viento</t>
-  </si>
-  <si>
-    <t>Derrota al Windchaser.</t>
-  </si>
-  <si>
     <t>探索者</t>
   </si>
   <si>
@@ -267,282 +162,150 @@
     <t>Explorador</t>
   </si>
   <si>
-    <t>Borra tu primera mazmorra.</t>
-  </si>
-  <si>
     <t>红石城秘境</t>
   </si>
   <si>
     <t>首次通关红石城秘境</t>
   </si>
   <si>
-    <t>Reino secreto: Redstone Keep</t>
-  </si>
-  <si>
-    <t>Reclamar la victoria en Redstone Keep's Secret Realm por primera vez.</t>
-  </si>
-  <si>
     <t>花卉乡秘境</t>
   </si>
   <si>
     <t>首次通关花卉乡秘境</t>
   </si>
   <si>
-    <t>Reino secreto: Fleur</t>
-  </si>
-  <si>
-    <t>Reclamar la victoria en Fleur's Secret Realm por primera vez.</t>
-  </si>
-  <si>
     <t>半月山集市秘境</t>
   </si>
   <si>
     <t>首次通关半月山集市秘境</t>
   </si>
   <si>
-    <t>Reino secreto: Bazar de Halfmoon Hills</t>
-  </si>
-  <si>
-    <t>Reclamar la victoria en Halfmoon Hills Bazaar's Secret Realm por primera vez.</t>
-  </si>
-  <si>
     <t>雪岭镇秘境</t>
   </si>
   <si>
     <t>首次通关雪岭镇秘境</t>
   </si>
   <si>
-    <t>Reino secreto: Snowridge</t>
-  </si>
-  <si>
-    <t>Reclamar la victoria en Snowridge's Secret Realm por primera vez.</t>
-  </si>
-  <si>
     <t>冰谷秘境</t>
   </si>
   <si>
     <t>首次通关冰谷秘境</t>
   </si>
   <si>
-    <t>Reino secreto: Frost Valley</t>
-  </si>
-  <si>
-    <t>Reclamar la victoria en Frost Valley's Secret Realm por primera vez.</t>
-  </si>
-  <si>
     <t>沙风镇秘境</t>
   </si>
   <si>
     <t>首次通关沙风镇秘境</t>
   </si>
   <si>
-    <t>Reino secreto: tormenta</t>
-  </si>
-  <si>
-    <t>Reclamar la victoria en Dunestorm's Secret Realm por primera vez.</t>
-  </si>
-  <si>
     <t>黑泥城秘境</t>
   </si>
   <si>
     <t>首次通关黑泥城秘境</t>
   </si>
   <si>
-    <t>Reino secreto: Mireton</t>
-  </si>
-  <si>
-    <t>Reclamar la victoria en el reino de Mireton Secret por primera vez.</t>
-  </si>
-  <si>
     <t>那古卡秘境</t>
   </si>
   <si>
     <t>首次通关那古卡秘境</t>
   </si>
   <si>
-    <t>Reino secreto: Nagukka</t>
-  </si>
-  <si>
-    <t>Reclamar la victoria en el reino de Nagukka en Secret por primera vez.</t>
-  </si>
-  <si>
     <t>陶山镇秘境</t>
   </si>
   <si>
     <t>首次通关陶山镇秘境</t>
   </si>
   <si>
-    <t>Reino secreto: Cotta Town</t>
-  </si>
-  <si>
-    <t>Reclamar la victoria en el reino secreto de Cotta Town por primera vez.</t>
-  </si>
-  <si>
     <t>三石堡秘境</t>
   </si>
   <si>
     <t>首次通关三石堡秘境</t>
   </si>
   <si>
-    <t>Reino secreto: tríptico rock</t>
-  </si>
-  <si>
-    <t>Reclamar la victoria en Triptych Rock's Secret Realm por primera vez.</t>
-  </si>
-  <si>
     <t>紫木镇秘境</t>
   </si>
   <si>
     <t>首次通关紫木镇秘境</t>
   </si>
   <si>
-    <t>Reino secreto: Amaranth Town</t>
-  </si>
-  <si>
-    <t>Reclamar la victoria en el reino secreto de Amaranth Town por primera vez.</t>
-  </si>
-  <si>
     <t>北风镇秘境</t>
   </si>
   <si>
     <t>首次通关北风镇秘境</t>
   </si>
   <si>
-    <t>Reino secreto: Qebui Keep</t>
-  </si>
-  <si>
-    <t>Reclamar la victoria en el reino secreto de Qebui Keep por primera vez.</t>
-  </si>
-  <si>
     <t>苦泉镇秘境</t>
   </si>
   <si>
     <t>首次通关苦泉镇秘境</t>
   </si>
   <si>
-    <t>Reino secreto: Diresprings</t>
-  </si>
-  <si>
-    <t>Reclamar la victoria en el reino secreto de Diresprings por primera vez.</t>
-  </si>
-  <si>
     <t>驼铃集市秘境</t>
   </si>
   <si>
     <t>首次通关驼铃集市秘境</t>
   </si>
   <si>
-    <t>Reino secreto: Camel Bell Bazaar</t>
-  </si>
-  <si>
-    <t>Reclamar la victoria en el reino Secret de Camel Bell Bazaar por primera vez.</t>
-  </si>
-  <si>
     <t>黄金集市秘境</t>
   </si>
   <si>
     <t>首次通关黄金集市秘境</t>
   </si>
   <si>
-    <t>Reino secreto: bazar de oro</t>
-  </si>
-  <si>
-    <t>Reclamar la victoria en Golden Bazaar's Secret Realm por primera vez.</t>
-  </si>
-  <si>
     <t>浅溪镇秘境</t>
   </si>
   <si>
     <t>首次通关浅溪镇秘境</t>
   </si>
   <si>
-    <t>Reino secreto: Agadir</t>
-  </si>
-  <si>
-    <t>Reclamar la victoria en el reino de Agadir Secret por primera vez.</t>
-  </si>
-  <si>
     <t>黯毒古龙</t>
   </si>
   <si>
     <t>首次获得兵种：黑龙</t>
   </si>
   <si>
-    <t>Dragón de Veneno</t>
-  </si>
-  <si>
     <t>烈焰古龙</t>
   </si>
   <si>
     <t>首次获得兵种：火龙</t>
   </si>
   <si>
-    <t>Dragón de Fuego</t>
-  </si>
-  <si>
     <t>寒霜古龙</t>
   </si>
   <si>
     <t>首次获得兵种：冰龙</t>
   </si>
   <si>
-    <t>Dragón de Hielo</t>
-  </si>
-  <si>
     <t>恶魔领主</t>
   </si>
   <si>
     <t>首次获得兵种：恶魔</t>
   </si>
   <si>
-    <t>Señor Demonio</t>
-  </si>
-  <si>
     <t>凤凰之王</t>
   </si>
   <si>
     <t>首次获得兵种：凤凰</t>
   </si>
   <si>
-    <t xml:space="preserve">Rey Phoenix </t>
-  </si>
-  <si>
     <t>一年光阴</t>
   </si>
   <si>
     <t>某个周目的游戏内时间超过一年</t>
   </si>
   <si>
-    <t>Aniversario</t>
-  </si>
-  <si>
-    <t>Tenga un juego que dura más de un año.</t>
-  </si>
-  <si>
     <t>心灵巫师真结局</t>
   </si>
   <si>
     <t>通关心灵巫师真结局</t>
   </si>
   <si>
-    <t>Verdadero Spiritmancer</t>
-  </si>
-  <si>
-    <t>Descubra el verdadero final de Spiritmancer.</t>
-  </si>
-  <si>
     <t>赏金猎人白狮地牢</t>
   </si>
   <si>
     <t>通过机关而非战斗方式离开白狮地牢</t>
   </si>
   <si>
-    <t>Shujae se escapa</t>
-  </si>
-  <si>
-    <t>Salir de la mazmorra Shujae usando cerebros, no de fuerza.</t>
-  </si>
-  <si>
     <t>女巫信仰</t>
   </si>
   <si>
@@ -552,93 +315,48 @@
     <t>扮演心灵女巫从心魔洞窟中一次性走出</t>
   </si>
   <si>
-    <t>Fe de la Bruja</t>
-  </si>
-  <si>
-    <t>Escape de las cuevas de Shaitan en tu primer intento mientras juega como la Spirit Witch.</t>
-  </si>
-  <si>
     <t>美女与野兽</t>
   </si>
   <si>
     <t>扮演野性之魂招募希也入队</t>
   </si>
   <si>
-    <t>La Bella y la Bestia</t>
-  </si>
-  <si>
     <t>相遇即缘</t>
   </si>
   <si>
     <t>扮演鬣狗从阿曼莎手里解救弦萝</t>
   </si>
   <si>
-    <t>Encuentro con el Destino</t>
-  </si>
-  <si>
-    <t>Rescata a Dahlia de Rebiya mientras juega como el chacal.</t>
-  </si>
-  <si>
     <t>古代机械大师</t>
   </si>
   <si>
     <t>扮演领主将无名部落图书馆升级为3级</t>
   </si>
   <si>
-    <t>Maestro Isu</t>
-  </si>
-  <si>
-    <t>Actualice su biblioteca a LV. 3 mientras juega como sultán de las personas sin nombre.</t>
-  </si>
-  <si>
     <t>秘剑无名</t>
   </si>
   <si>
     <t>扮演无名剑主通关史诗难度的剧情模式</t>
   </si>
   <si>
-    <t>Pruebas de Voldemort</t>
-  </si>
-  <si>
-    <t>Modo de historia clara sobre dificultad épica mientras juega como el sin nombre.</t>
-  </si>
-  <si>
     <t>酒馆豪杰</t>
   </si>
   <si>
     <t>在某个周目内连续赢得5场酒馆搏斗</t>
   </si>
   <si>
-    <t>Brawler de Taberna</t>
-  </si>
-  <si>
-    <t>Gane 5 peleas consecutivas en una sola jugada.</t>
-  </si>
-  <si>
     <t>比武冠军</t>
   </si>
   <si>
     <t>在某个周目内赢得超过15场比武大会</t>
   </si>
   <si>
-    <t>Pro Experimentado</t>
-  </si>
-  <si>
-    <t>Gana 15 torneos en un solo juego.</t>
-  </si>
-  <si>
     <t>鉴宝高手</t>
   </si>
   <si>
     <t>在某个周目内前往集市成功购物超过20次</t>
   </si>
   <si>
-    <t>Comerciante de Tesoros</t>
-  </si>
-  <si>
-    <t>Compre algo en un bazar más de 20 veces en un solo juego.</t>
-  </si>
-  <si>
     <t>一人之下</t>
   </si>
   <si>
@@ -648,124 +366,406 @@
     <t>在某个周目内获得过五级头衔</t>
   </si>
   <si>
-    <t>Entre la Nobleza</t>
-  </si>
-  <si>
-    <t>Ser promovido a un título de rango 5.</t>
-  </si>
-  <si>
     <t>好朋友</t>
   </si>
   <si>
     <t>在某个周目内与某人成为朋友</t>
   </si>
   <si>
-    <t>Relaciones Amistosas</t>
-  </si>
-  <si>
-    <t>Hazte amigo de alguien.</t>
-  </si>
-  <si>
     <t>巧舌如簧</t>
   </si>
   <si>
     <t>在某个周目内劝降成功过五个以上的英雄</t>
   </si>
   <si>
-    <t>Lengua de Plata</t>
-  </si>
-  <si>
-    <t>Persuade 5 Heroes para que se rinda en una sola jugada.</t>
-  </si>
-  <si>
     <t>心急的公主</t>
   </si>
   <si>
     <t>与银珊公主在3个月内击败黑火</t>
   </si>
   <si>
-    <t>Princesa Proactiva</t>
-  </si>
-  <si>
-    <t>Derrota a la llama de la obsidiana con Ilayda en 3 meses.</t>
-  </si>
-  <si>
     <t>速战速决</t>
   </si>
   <si>
     <t>在180秒内击败黑火</t>
   </si>
   <si>
-    <t>Más rápido que las Sombras</t>
-  </si>
-  <si>
-    <t>Derrota a la llama de la obsidiana en 180 segundos.</t>
-  </si>
-  <si>
     <t>巫术大师</t>
   </si>
   <si>
     <t>在某个周目内学习3个不同的巫术技能页</t>
   </si>
   <si>
-    <t>Maestro Arcano</t>
-  </si>
-  <si>
-    <t>Aprenda habilidades de 3 escuelas de Arcana en un solo juego.</t>
-  </si>
-  <si>
     <t>龙族血脉</t>
   </si>
   <si>
     <t>扮演野性之魂习得巨龙形态极</t>
   </si>
   <si>
-    <t>El Dovahkiin</t>
-  </si>
-  <si>
-    <t>Aprende Forma Drake: Ultra mientras juega como chamán.</t>
-  </si>
-  <si>
     <t>沙扎尔大师</t>
   </si>
   <si>
     <t>在沙盒模式下的某个周目的游戏内时间超过一年</t>
   </si>
   <si>
-    <t>Maestro de Salzaar</t>
-  </si>
-  <si>
-    <t>Tenga un juego de modo Sandbox que dure más de un año.</t>
-  </si>
-  <si>
     <t>路霸</t>
   </si>
   <si>
     <t>在某个周目内劫掠超过30支商队或者村民队伍</t>
   </si>
   <si>
-    <t>Pilasco Principal</t>
-  </si>
-  <si>
-    <t>Saquea más de 30 caravanas o aldeanos en un solo juego.</t>
-  </si>
-  <si>
-    <t>Tenga un dragón de veneno en tu grupo por primera vez.</t>
-  </si>
-  <si>
-    <t>Tenga un dragón de fuego en tu grupo por primera vez.</t>
-  </si>
-  <si>
-    <t>Tenga un dragón de hielo en tu grupo por primera vez.</t>
-  </si>
-  <si>
-    <t>Ten un demonio en tu grupo por primera vez.</t>
-  </si>
-  <si>
-    <t>Tenga un fénix en tu grupo por primera vez.</t>
-  </si>
-  <si>
-    <t>Reclute a Yaksha a tu grupo mientras juega como chamán.</t>
+    <t>Bem-vindo ao Deserto</t>
+  </si>
+  <si>
+    <t>Pise pela primeira vez na areia de Salzaar.</t>
+  </si>
+  <si>
+    <t>Mercador do Deserto</t>
+  </si>
+  <si>
+    <t>Venda seu primeiro item.</t>
+  </si>
+  <si>
+    <t>Confiável</t>
+  </si>
+  <si>
+    <t>Complete sua primeira missão aleatória.</t>
+  </si>
+  <si>
+    <t>Primeira Vez para Tudo</t>
+  </si>
+  <si>
+    <t>Conclua a História Principal e vença o chefe final.</t>
+  </si>
+  <si>
+    <t>Segunda Chance</t>
+  </si>
+  <si>
+    <t>Conclua a História Principal em uma dificuldade de +1 ou superior.</t>
+  </si>
+  <si>
+    <t>Desafio Maior</t>
+  </si>
+  <si>
+    <t>Inicie uma partida em uma dificuldade de +2 ou superior.</t>
+  </si>
+  <si>
+    <t>Tarefa Esgotante</t>
+  </si>
+  <si>
+    <t>Inicie uma partida em uma dificuldade de +5 ou superior.</t>
+  </si>
+  <si>
+    <t>Cultivado em Casa</t>
+  </si>
+  <si>
+    <t>Crie sua própria facção.</t>
+  </si>
+  <si>
+    <t>Melhor Juntos</t>
+  </si>
+  <si>
+    <t>Junte-se a uma facção.</t>
+  </si>
+  <si>
+    <t>Amor Verdadeiro</t>
+  </si>
+  <si>
+    <t>Torne-se amante de alguém.</t>
+  </si>
+  <si>
+    <t>Guerreiro Solar</t>
+  </si>
+  <si>
+    <t>Derrote o Guerreiro Sol.</t>
+  </si>
+  <si>
+    <t>Dama Lagarto</t>
+  </si>
+  <si>
+    <t>Derrote a Donzela Lagarto.</t>
+  </si>
+  <si>
+    <t>Princesa de Gelo</t>
+  </si>
+  <si>
+    <t>Derrote a Princesa do Gelo.</t>
+  </si>
+  <si>
+    <t>Grande Mago das Sombras</t>
+  </si>
+  <si>
+    <t>Derrote o Grande Mago das Sombras.</t>
+  </si>
+  <si>
+    <t>Derrote o Alquimista Dakn.</t>
+  </si>
+  <si>
+    <t>O Caído</t>
+  </si>
+  <si>
+    <t>Derrote O Caído.</t>
+  </si>
+  <si>
+    <t>Cavaleiro da Lança</t>
+  </si>
+  <si>
+    <t>Derrote o Cavaleiro da Lança.</t>
+  </si>
+  <si>
+    <t>Perseguidor do Vento</t>
+  </si>
+  <si>
+    <t>Derrote o Perseguidor do Vento.</t>
+  </si>
+  <si>
+    <t>Limpe sua primeira masmorra.</t>
+  </si>
+  <si>
+    <t>Reino Secreto: Fortaleza da Pedra Vermelha</t>
+  </si>
+  <si>
+    <t>Reivindique a vitória no Reino Secreto de Redstone Keep pela primeira vez.</t>
+  </si>
+  <si>
+    <t>Reino Secreto: Fleur</t>
+  </si>
+  <si>
+    <t>Reivindique a vitória no Reino Secreto de Fleur pela primeira vez.</t>
+  </si>
+  <si>
+    <t>Reino Secreto: Bazar de Halfmoon Hills</t>
+  </si>
+  <si>
+    <t>Reivindique a vitória no Reino Secreto de Halfmoon Hills Bazaar pela primeira vez.</t>
+  </si>
+  <si>
+    <t>Reino Secreto: Snowridge</t>
+  </si>
+  <si>
+    <t>Reivindique a vitória no Reino Secreto de Snowridge pela primeira vez.</t>
+  </si>
+  <si>
+    <t>Reino Secreto: Frost Valley</t>
+  </si>
+  <si>
+    <t>Reivindique a vitória no Reino Secreto de Frost Valley pela primeira vez.</t>
+  </si>
+  <si>
+    <t>Reino Secreto: Dunestorm</t>
+  </si>
+  <si>
+    <t>Reivindique a vitória no Reino Secreto de Dunestorm pela primeira vez.</t>
+  </si>
+  <si>
+    <t>Reino Secreto: Mireton</t>
+  </si>
+  <si>
+    <t>Reivindique a vitória no Reino Secreto de Mireton pela primeira vez.</t>
+  </si>
+  <si>
+    <t>Reino Secreto: Nagukka</t>
+  </si>
+  <si>
+    <t>Reivindique a vitória no Reino Secreto de Nagukka pela primeira vez.</t>
+  </si>
+  <si>
+    <t>Reino Secreto: Cotta Town</t>
+  </si>
+  <si>
+    <t>Reivindique a vitória no Reino Secreto de Cotta Town pela primeira vez.</t>
+  </si>
+  <si>
+    <t>Reino Secreto: Rocha Triptych</t>
+  </si>
+  <si>
+    <t>Reivindique a vitória no Reino Secreto de Triptych Rock pela primeira vez.</t>
+  </si>
+  <si>
+    <t>Reino Secreto: Amaranth Town</t>
+  </si>
+  <si>
+    <t>Reivindique a vitória no Reino Secreto de Amaranth Town pela primeira vez.</t>
+  </si>
+  <si>
+    <t>Reino Secreto: Fortaleza de Qebui</t>
+  </si>
+  <si>
+    <t>Reivindique a vitória no Reino Secreto de Qebui Keep pela primeira vez.</t>
+  </si>
+  <si>
+    <t>Reino Secreto: Diresprings</t>
+  </si>
+  <si>
+    <t>Reivindique a vitória no Reino Secreto de Diresprings pela primeira vez.</t>
+  </si>
+  <si>
+    <t>Reino Secreto: Bazar do Sino de Camelo</t>
+  </si>
+  <si>
+    <t>Reivindique a vitória no Reino Secreto de Camel Bell Bazaar pela primeira vez.</t>
+  </si>
+  <si>
+    <t>Reino Secreto: Bazar Dourado</t>
+  </si>
+  <si>
+    <t>Reivindique a vitória no Reino Secreto de Golden Bazaar pela primeira vez.</t>
+  </si>
+  <si>
+    <t>Reino Secreto: Agadir</t>
+  </si>
+  <si>
+    <t>Reivindique a vitória no Reino Secreto de Agadir pela primeira vez.</t>
+  </si>
+  <si>
+    <t>Dragão Veneno</t>
+  </si>
+  <si>
+    <t>Tenha um Dragão Veneno em sua equipe pela primeira vez.</t>
+  </si>
+  <si>
+    <t>Dragão de Fogo</t>
+  </si>
+  <si>
+    <t>Tenha um Dragão de Fogo em sua equipe pela primeira vez.</t>
+  </si>
+  <si>
+    <t>Dragão de Gelo</t>
+  </si>
+  <si>
+    <t>Tenha um Dragão de Gelo em sua equipe pela primeira vez.</t>
+  </si>
+  <si>
+    <t>Senhor Demoníaco</t>
+  </si>
+  <si>
+    <t>Tenha um Demônio em sua equipe pela primeira vez.</t>
+  </si>
+  <si>
+    <t>Rei Fênix</t>
+  </si>
+  <si>
+    <t>Tenha uma Fênix em sua equipe pela primeira vez.</t>
+  </si>
+  <si>
+    <t>Aniversário</t>
+  </si>
+  <si>
+    <t>Tenha uma partida que dure mais de um ano.</t>
+  </si>
+  <si>
+    <t>Verdadeiro Espíritomante</t>
+  </si>
+  <si>
+    <t>Descubra o verdadeiro final do Spiritmancer.</t>
+  </si>
+  <si>
+    <t>Shujae Escapa</t>
+  </si>
+  <si>
+    <t>Escape da masmorra de Shujae usando a inteligência, não a força.</t>
+  </si>
+  <si>
+    <t>Fé da Bruxa</t>
+  </si>
+  <si>
+    <t>Escape das cavernas de Shaitan na primeira tentativa, jogando como a Bruxa Espiritual.</t>
+  </si>
+  <si>
+    <t>A Bela e a Fera</t>
+  </si>
+  <si>
+    <t>Recrute Yaksha para sua equipe jogando como o Xamã.</t>
+  </si>
+  <si>
+    <t>Encontro Destinado</t>
+  </si>
+  <si>
+    <t>Resgate Dahlia de Rebiya jogando como o Chacal.</t>
+  </si>
+  <si>
+    <t>Mestre da Machina Antiga</t>
+  </si>
+  <si>
+    <t>Atualize sua Biblioteca para o nível 3 jogando como o Sultão do Sem Nome.</t>
+  </si>
+  <si>
+    <t>Testes do Sem Nome</t>
+  </si>
+  <si>
+    <t>Complete o Modo História na dificuldade Épica jogando como o Sem Nome.</t>
+  </si>
+  <si>
+    <t>Lutador de Taverna</t>
+  </si>
+  <si>
+    <t>Vença 5 lutas consecutivas de taverna em uma única partida.</t>
+  </si>
+  <si>
+    <t>Veterano Experiente</t>
+  </si>
+  <si>
+    <t>Vença 15 torneios em uma única partida.</t>
+  </si>
+  <si>
+    <t>Comerciante de Tesouros</t>
+  </si>
+  <si>
+    <t>Compre algo de um bazar mais de 20 vezes em uma única partida.</t>
+  </si>
+  <si>
+    <t>Entre a Nobreza</t>
+  </si>
+  <si>
+    <t>Seja promovido a um título de nível 5.</t>
+  </si>
+  <si>
+    <t>Relações Amigáveis</t>
+  </si>
+  <si>
+    <t>Faça amizade com alguém.</t>
+  </si>
+  <si>
+    <t>Lábia de Prata</t>
+  </si>
+  <si>
+    <t>Persuada 5 heróis a se renderem em uma única partida.</t>
+  </si>
+  <si>
+    <t>Princesa Proativa</t>
+  </si>
+  <si>
+    <t>Derrote a Chama Obsidiana com Ilayda em 3 meses.</t>
+  </si>
+  <si>
+    <t>Mais Rápido que as Sombras</t>
+  </si>
+  <si>
+    <t>Derrote a Chama Obsidiana em 180 segundos.</t>
+  </si>
+  <si>
+    <t>Mestre Arcano</t>
+  </si>
+  <si>
+    <t>Aprenda habilidades de 3 escolas de arcanos em uma única partida.</t>
+  </si>
+  <si>
+    <t>Sangue do Dragão</t>
+  </si>
+  <si>
+    <t>Aprenda a Forma do Drake: Ultra jogando como o Xamã.</t>
+  </si>
+  <si>
+    <t>Mestre de Salzaar</t>
+  </si>
+  <si>
+    <t>Tenha uma partida no Modo Livre que dure mais de um ano.</t>
+  </si>
+  <si>
+    <t>Pilhador Supremo</t>
+  </si>
+  <si>
+    <t>Pilhe mais de 30 caravanas ou aldeões em uma única partida.</t>
   </si>
 </sst>
 </file>
@@ -849,8 +849,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -870,9 +870,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1095,15 +1092,15 @@
   <dimension ref="A1:R1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E2" sqref="A1:E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1128,1137 +1125,1137 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="R2" s="8"/>
-    </row>
-    <row r="3" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="E3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="R3" s="8"/>
-    </row>
-    <row r="4" spans="1:18" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="E5" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="R5" s="7"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C6" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="R4" s="8"/>
-    </row>
-    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="E7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="R5" s="8"/>
-    </row>
-    <row r="6" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="E9" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="R6" s="8"/>
-    </row>
-    <row r="7" spans="1:18" ht="54" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="E11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="R11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="7"/>
-      <c r="R7" s="8"/>
-    </row>
-    <row r="8" spans="1:18" ht="54" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="E13" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="R13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C14" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="R14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="R8" s="8"/>
-    </row>
-    <row r="9" spans="1:18" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="E15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="R15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E16" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="N16" s="7"/>
+      <c r="R16" s="7"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="R9" s="8"/>
-    </row>
-    <row r="10" spans="1:18" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="E17" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="R17" s="7"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="E18" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="N18" s="7"/>
+      <c r="R18" s="7"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="R10" s="8"/>
-    </row>
-    <row r="11" spans="1:18" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="E19" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="N19" s="7"/>
+      <c r="R19" s="7"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="7"/>
-      <c r="R11" s="8"/>
-    </row>
-    <row r="12" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N12" s="7"/>
-      <c r="R12" s="8"/>
-    </row>
-    <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="N13" s="7"/>
-      <c r="R13" s="8"/>
-    </row>
-    <row r="14" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N14" s="7"/>
-      <c r="R14" s="8"/>
-    </row>
-    <row r="15" spans="1:18" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N15" s="7"/>
-      <c r="R15" s="8"/>
-    </row>
-    <row r="16" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N16" s="7"/>
-      <c r="R16" s="8"/>
-    </row>
-    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N17" s="7"/>
-      <c r="R17" s="8"/>
-    </row>
-    <row r="18" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N18" s="7"/>
-      <c r="R18" s="8"/>
-    </row>
-    <row r="19" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="N19" s="7"/>
-      <c r="R19" s="8"/>
-    </row>
-    <row r="20" spans="1:18" ht="54" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="N20" s="8"/>
-      <c r="R20" s="8"/>
+        <v>164</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="R20" s="7"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="N21" s="8"/>
-      <c r="R21" s="8"/>
+        <v>166</v>
+      </c>
+      <c r="N21" s="7"/>
+      <c r="R21" s="7"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="N22" s="8"/>
-      <c r="R22" s="8"/>
+        <v>168</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="R22" s="7"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N23" s="8"/>
-      <c r="R23" s="8"/>
+        <v>170</v>
+      </c>
+      <c r="N23" s="7"/>
+      <c r="R23" s="7"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="N24" s="8"/>
-      <c r="R24" s="8"/>
+        <v>172</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="R24" s="7"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="N25" s="8"/>
-      <c r="R25" s="8"/>
+        <v>174</v>
+      </c>
+      <c r="N25" s="7"/>
+      <c r="R25" s="7"/>
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N26" s="8"/>
-      <c r="R26" s="8"/>
+        <v>176</v>
+      </c>
+      <c r="N26" s="7"/>
+      <c r="R26" s="7"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="N27" s="8"/>
-      <c r="R27" s="8"/>
+        <v>178</v>
+      </c>
+      <c r="N27" s="7"/>
+      <c r="R27" s="7"/>
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="N28" s="8"/>
-      <c r="R28" s="8"/>
+        <v>180</v>
+      </c>
+      <c r="N28" s="7"/>
+      <c r="R28" s="7"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="N29" s="8"/>
-      <c r="R29" s="8"/>
+        <v>182</v>
+      </c>
+      <c r="N29" s="7"/>
+      <c r="R29" s="7"/>
     </row>
     <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="N30" s="8"/>
-      <c r="R30" s="8"/>
+        <v>184</v>
+      </c>
+      <c r="N30" s="7"/>
+      <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="N31" s="8"/>
-      <c r="R31" s="8"/>
+        <v>186</v>
+      </c>
+      <c r="N31" s="7"/>
+      <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="N32" s="8"/>
-      <c r="R32" s="8"/>
+        <v>188</v>
+      </c>
+      <c r="N32" s="7"/>
+      <c r="R32" s="7"/>
     </row>
     <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="N33" s="8"/>
-      <c r="R33" s="8"/>
+        <v>190</v>
+      </c>
+      <c r="N33" s="7"/>
+      <c r="R33" s="7"/>
     </row>
     <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="N34" s="8"/>
-      <c r="R34" s="8"/>
+        <v>192</v>
+      </c>
+      <c r="N34" s="7"/>
+      <c r="R34" s="7"/>
     </row>
     <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N35" s="8"/>
-      <c r="R35" s="8"/>
+        <v>194</v>
+      </c>
+      <c r="N35" s="7"/>
+      <c r="R35" s="7"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="N36" s="8"/>
-      <c r="R36" s="8"/>
+        <v>196</v>
+      </c>
+      <c r="N36" s="7"/>
+      <c r="R36" s="7"/>
     </row>
     <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="N37" s="7"/>
-      <c r="R37" s="8"/>
+      <c r="R37" s="7"/>
     </row>
     <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="N38" s="7"/>
-      <c r="R38" s="8"/>
+      <c r="R38" s="7"/>
     </row>
     <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="N39" s="7"/>
-      <c r="R39" s="8"/>
+      <c r="R39" s="7"/>
     </row>
     <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="N40" s="7"/>
-      <c r="R40" s="8"/>
+      <c r="R40" s="7"/>
     </row>
     <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="N41" s="7"/>
-      <c r="R41" s="8"/>
+      <c r="R41" s="7"/>
     </row>
     <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="N42" s="8"/>
-      <c r="R42" s="8"/>
+        <v>208</v>
+      </c>
+      <c r="N42" s="7"/>
+      <c r="R42" s="7"/>
     </row>
     <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="N43" s="8"/>
-      <c r="R43" s="8"/>
+        <v>210</v>
+      </c>
+      <c r="N43" s="7"/>
+      <c r="R43" s="7"/>
     </row>
     <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="N44" s="8"/>
-      <c r="R44" s="8"/>
+        <v>212</v>
+      </c>
+      <c r="N44" s="7"/>
+      <c r="R44" s="7"/>
     </row>
     <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="N45" s="7"/>
       <c r="R45" s="7"/>
     </row>
     <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="N46" s="7"/>
-      <c r="R46" s="8"/>
+      <c r="R46" s="7"/>
     </row>
     <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="N47" s="7"/>
-      <c r="R47" s="8"/>
+      <c r="R47" s="7"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>185</v>
+        <v>101</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="N48" s="7"/>
-      <c r="R48" s="8"/>
+      <c r="R48" s="7"/>
     </row>
     <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>189</v>
+        <v>103</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="N49" s="7"/>
-      <c r="R49" s="8"/>
+      <c r="R49" s="7"/>
     </row>
     <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="N50" s="7"/>
-      <c r="R50" s="8"/>
+      <c r="R50" s="7"/>
     </row>
     <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="N51" s="7"/>
-      <c r="R51" s="8"/>
+      <c r="R51" s="7"/>
     </row>
     <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="N52" s="7"/>
-      <c r="R52" s="8"/>
+      <c r="R52" s="7"/>
     </row>
     <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>205</v>
+        <v>111</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>206</v>
+        <v>112</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="N53" s="7"/>
-      <c r="R53" s="8"/>
+      <c r="R53" s="7"/>
     </row>
     <row r="54" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>210</v>
+        <v>114</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="N54" s="7"/>
-      <c r="R54" s="8"/>
+      <c r="R54" s="7"/>
     </row>
     <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>213</v>
+        <v>115</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>213</v>
+        <v>115</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>214</v>
+        <v>116</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="N55" s="7"/>
-      <c r="R55" s="8"/>
+      <c r="R55" s="7"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>217</v>
+        <v>117</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>217</v>
+        <v>117</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="N56" s="7"/>
-      <c r="R56" s="8"/>
+      <c r="R56" s="7"/>
     </row>
     <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>221</v>
+        <v>119</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>221</v>
+        <v>119</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>222</v>
+        <v>120</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="N57" s="7"/>
-      <c r="R57" s="8"/>
+      <c r="R57" s="7"/>
     </row>
     <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>225</v>
+        <v>121</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>225</v>
+        <v>121</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="N58" s="7"/>
-      <c r="R58" s="8"/>
+      <c r="R58" s="7"/>
     </row>
     <row r="59" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>229</v>
+        <v>123</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>229</v>
+        <v>123</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="N59" s="7"/>
-      <c r="R59" s="8"/>
+      <c r="R59" s="7"/>
     </row>
     <row r="60" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>233</v>
+        <v>125</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>233</v>
+        <v>125</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>234</v>
+        <v>126</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="N60" s="8"/>
-      <c r="R60" s="8"/>
+        <v>244</v>
+      </c>
+      <c r="N60" s="7"/>
+      <c r="R60" s="7"/>
     </row>
     <row r="61" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>237</v>
+        <v>127</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>237</v>
+        <v>127</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>238</v>
+        <v>128</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="N61" s="7"/>
-      <c r="R61" s="8"/>
+      <c r="R61" s="7"/>
     </row>
     <row r="62" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/tradept/Excel/Localization/english/C成就表_Achievements_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/C成就表_Achievements_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5D1657-A0D1-49D5-AB7C-448AD38347F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CD462A-8F05-4774-8DE0-39D37598E235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1097,10 +1097,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="102.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1117,7 +1121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1136,7 +1140,7 @@
       <c r="N2" s="7"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1155,7 +1159,7 @@
       <c r="N3" s="7"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1174,7 +1178,7 @@
       <c r="N4" s="7"/>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1193,7 +1197,7 @@
       <c r="N5" s="7"/>
       <c r="R5" s="7"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1212,7 +1216,7 @@
       <c r="N6" s="7"/>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1231,7 +1235,7 @@
       <c r="N7" s="7"/>
       <c r="R7" s="7"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1250,7 +1254,7 @@
       <c r="N8" s="7"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1269,7 +1273,7 @@
       <c r="N9" s="7"/>
       <c r="R9" s="7"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1288,7 +1292,7 @@
       <c r="N10" s="7"/>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1307,7 +1311,7 @@
       <c r="N11" s="7"/>
       <c r="R11" s="7"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1326,7 +1330,7 @@
       <c r="N12" s="7"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -1345,7 +1349,7 @@
       <c r="N13" s="7"/>
       <c r="R13" s="7"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1364,7 +1368,7 @@
       <c r="N14" s="7"/>
       <c r="R14" s="7"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1383,7 +1387,7 @@
       <c r="N15" s="7"/>
       <c r="R15" s="7"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
@@ -1402,7 +1406,7 @@
       <c r="N16" s="7"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
@@ -1421,7 +1425,7 @@
       <c r="N17" s="7"/>
       <c r="R17" s="7"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
@@ -1440,7 +1444,7 @@
       <c r="N18" s="7"/>
       <c r="R18" s="7"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>40</v>
       </c>
@@ -1459,7 +1463,7 @@
       <c r="N19" s="7"/>
       <c r="R19" s="7"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>42</v>
       </c>
